--- a/biology/Botanique/Parc_du_dôme/Parc_du_dôme.xlsx
+++ b/biology/Botanique/Parc_du_dôme/Parc_du_dôme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_du_d%C3%B4me</t>
+          <t>Parc_du_dôme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc du dôme (estonien : Toompark) est un parc de l'arrondissement de Kesklinn à Tallinn en Estonie[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc du dôme (estonien : Toompark) est un parc de l'arrondissement de Kesklinn à Tallinn en Estonie. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_du_d%C3%B4me</t>
+          <t>Parc_du_dôme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc, le plus grand de la zone des bastions, a été aménagé dans l’ancien talus fortifié de Toompea.
-Il entoure l'étang de Snell, qui est le dernier vestige des douves qui entouraient autrefois la vieille ville[2].
-L'étang porte le nom de Johan Snell, un jardinier suédois dont la maison se tenait près de l'étang au 19e siècle[3]. 
+Il entoure l'étang de Snell, qui est le dernier vestige des douves qui entouraient autrefois la vieille ville.
+L'étang porte le nom de Johan Snell, un jardinier suédois dont la maison se tenait près de l'étang au 19e siècle. 
 En 1903, on inaugure les escaliers de Patkul, qui partent du belvédère et relient la ville haute à la ville basse.
 À la même époque, le reste du parc est réaménagé en jardin paysager. 
-Une fontaine polygonale et une rocaille sont alors construitee près de l’étang[4].
+Une fontaine polygonale et une rocaille sont alors construitee près de l’étang.
 </t>
         </is>
       </c>
